--- a/C1-1.xlsx
+++ b/C1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15896" uniqueCount="7894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17592" uniqueCount="8636">
   <si>
     <t>dInstal</t>
   </si>
@@ -23694,6 +23694,2232 @@
   </si>
   <si>
     <t>18.129999999999967</t>
+  </si>
+  <si>
+    <t>2023-06-30 23:00:11</t>
+  </si>
+  <si>
+    <t>15.960000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:12</t>
+  </si>
+  <si>
+    <t>12.840000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:12</t>
+  </si>
+  <si>
+    <t>21.690000000000026</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:12</t>
+  </si>
+  <si>
+    <t>26.869999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:13</t>
+  </si>
+  <si>
+    <t>29.45999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:12</t>
+  </si>
+  <si>
+    <t>33.96999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:10</t>
+  </si>
+  <si>
+    <t>36.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:11</t>
+  </si>
+  <si>
+    <t>30.210000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:12</t>
+  </si>
+  <si>
+    <t>25.789999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:13</t>
+  </si>
+  <si>
+    <t>13.72999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:11</t>
+  </si>
+  <si>
+    <t>-6.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:12</t>
+  </si>
+  <si>
+    <t>-9.329999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:12</t>
+  </si>
+  <si>
+    <t>-9.050000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:12</t>
+  </si>
+  <si>
+    <t>-5.950000000000017</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:12</t>
+  </si>
+  <si>
+    <t>-5.440000000000026</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:11</t>
+  </si>
+  <si>
+    <t>-4.1699999999999875</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:11</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:12</t>
+  </si>
+  <si>
+    <t>-0.7100000000000364</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:12</t>
+  </si>
+  <si>
+    <t>1.759999999999991</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:12</t>
+  </si>
+  <si>
+    <t>9.789999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:11</t>
+  </si>
+  <si>
+    <t>12.089999999999975</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:13</t>
+  </si>
+  <si>
+    <t>12.690000000000026</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:12</t>
+  </si>
+  <si>
+    <t>6.749999999999972</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:12</t>
+  </si>
+  <si>
+    <t>0.160000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:13</t>
+  </si>
+  <si>
+    <t>-10.090000000000032</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:12</t>
+  </si>
+  <si>
+    <t>-10.350000000000023</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:11</t>
+  </si>
+  <si>
+    <t>-0.24000000000003752</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:12</t>
+  </si>
+  <si>
+    <t>35.56</t>
+  </si>
+  <si>
+    <t>2.3999999999999773</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:11</t>
+  </si>
+  <si>
+    <t>-2.67000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:12</t>
+  </si>
+  <si>
+    <t>35.81</t>
+  </si>
+  <si>
+    <t>-12.949999999999989</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:12</t>
+  </si>
+  <si>
+    <t>0.12999999999996703</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:12</t>
+  </si>
+  <si>
+    <t>-2.620000000000033</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:12</t>
+  </si>
+  <si>
+    <t>3.3000000000000114</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:13</t>
+  </si>
+  <si>
+    <t>15.189999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:13</t>
+  </si>
+  <si>
+    <t>17.339999999999975</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:11</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:00:09</t>
+  </si>
+  <si>
+    <t>2.1499999999999773</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:12</t>
+  </si>
+  <si>
+    <t>-13.51000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:12</t>
+  </si>
+  <si>
+    <t>-18.889999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:12</t>
+  </si>
+  <si>
+    <t>-8.990000000000009</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:12</t>
+  </si>
+  <si>
+    <t>-18.970000000000027</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:11</t>
+  </si>
+  <si>
+    <t>-12.300000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:12</t>
+  </si>
+  <si>
+    <t>-16.609999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:12</t>
+  </si>
+  <si>
+    <t>-12.009999999999991</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:13</t>
+  </si>
+  <si>
+    <t>-11.870000000000033</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:11</t>
+  </si>
+  <si>
+    <t>-8.860000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:11</t>
+  </si>
+  <si>
+    <t>-12.389999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:12</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>6.759999999999991</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:12</t>
+  </si>
+  <si>
+    <t>4.280000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-04 12:00:17</t>
+  </si>
+  <si>
+    <t>-5.759999999999991</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:11</t>
+  </si>
+  <si>
+    <t>-7.960000000000036</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:00:35</t>
+  </si>
+  <si>
+    <t>-14.939999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-04 17:00:09</t>
+  </si>
+  <si>
+    <t>-10.090000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:11</t>
+  </si>
+  <si>
+    <t>-9.930000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:12</t>
+  </si>
+  <si>
+    <t>36.81</t>
+  </si>
+  <si>
+    <t>-13.150000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:13</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>-10.870000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:12</t>
+  </si>
+  <si>
+    <t>37.13</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:42</t>
+  </si>
+  <si>
+    <t>37.38</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:12</t>
+  </si>
+  <si>
+    <t>-3.410000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:13</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>10.410000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:12</t>
+  </si>
+  <si>
+    <t>24.110000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:12</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>31.26000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:12</t>
+  </si>
+  <si>
+    <t>40.499999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:13</t>
+  </si>
+  <si>
+    <t>31.99999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:13</t>
+  </si>
+  <si>
+    <t>20.94999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:00:21</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:12</t>
+  </si>
+  <si>
+    <t>16.659999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:11</t>
+  </si>
+  <si>
+    <t>20.309999999999974</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:12</t>
+  </si>
+  <si>
+    <t>19.870000000000033</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:11</t>
+  </si>
+  <si>
+    <t>23.96999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:11</t>
+  </si>
+  <si>
+    <t>27.129999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:12</t>
+  </si>
+  <si>
+    <t>24.420000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:12</t>
+  </si>
+  <si>
+    <t>17.619999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:12</t>
+  </si>
+  <si>
+    <t>18.55000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:12</t>
+  </si>
+  <si>
+    <t>21.049999999999983</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:12</t>
+  </si>
+  <si>
+    <t>23.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:13</t>
+  </si>
+  <si>
+    <t>22.17999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:12</t>
+  </si>
+  <si>
+    <t>21.580000000000013</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:11</t>
+  </si>
+  <si>
+    <t>8.899999999999977</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:11</t>
+  </si>
+  <si>
+    <t>13.599999999999966</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:11</t>
+  </si>
+  <si>
+    <t>-4.119999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:11</t>
+  </si>
+  <si>
+    <t>-14.320000000000022</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:10</t>
+  </si>
+  <si>
+    <t>-16.710000000000036</t>
+  </si>
+  <si>
+    <t>2023-07-06 18:00:13</t>
+  </si>
+  <si>
+    <t>-15.809999999999974</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:12</t>
+  </si>
+  <si>
+    <t>-10.95999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:13</t>
+  </si>
+  <si>
+    <t>-8.97999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:12</t>
+  </si>
+  <si>
+    <t>-0.1699999999999875</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:12</t>
+  </si>
+  <si>
+    <t>-6.3799999999999955</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:11</t>
+  </si>
+  <si>
+    <t>-1.799999999999983</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:11</t>
+  </si>
+  <si>
+    <t>37.06</t>
+  </si>
+  <si>
+    <t>-4.75</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:12</t>
+  </si>
+  <si>
+    <t>-3.4300000000000352</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:12</t>
+  </si>
+  <si>
+    <t>37.25</t>
+  </si>
+  <si>
+    <t>2.6500000000000057</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:11</t>
+  </si>
+  <si>
+    <t>-2.8500000000000227</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:44</t>
+  </si>
+  <si>
+    <t>8.140000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:10</t>
+  </si>
+  <si>
+    <t>-2.0100000000000193</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:12</t>
+  </si>
+  <si>
+    <t>0.09000000000000341</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:12</t>
+  </si>
+  <si>
+    <t>-2.680000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:09</t>
+  </si>
+  <si>
+    <t>-2.1899999999999693</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:11</t>
+  </si>
+  <si>
+    <t>38.06</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:09</t>
+  </si>
+  <si>
+    <t>6.189999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:11</t>
+  </si>
+  <si>
+    <t>18.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:13</t>
+  </si>
+  <si>
+    <t>37.63</t>
+  </si>
+  <si>
+    <t>17.529999999999973</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:10</t>
+  </si>
+  <si>
+    <t>8.150000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:14</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:11</t>
+  </si>
+  <si>
+    <t>11.45999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:12</t>
+  </si>
+  <si>
+    <t>18.619999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:10</t>
+  </si>
+  <si>
+    <t>19.830000000000013</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:09</t>
+  </si>
+  <si>
+    <t>14.319999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:19</t>
+  </si>
+  <si>
+    <t>-12.069999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:11</t>
+  </si>
+  <si>
+    <t>-1.6800000000000352</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:13</t>
+  </si>
+  <si>
+    <t>16.439999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:10</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:10</t>
+  </si>
+  <si>
+    <t>-10.689999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:10</t>
+  </si>
+  <si>
+    <t>-21.609999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:09</t>
+  </si>
+  <si>
+    <t>-16.840000000000032</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:11</t>
+  </si>
+  <si>
+    <t>38.63</t>
+  </si>
+  <si>
+    <t>1.5700000000000216</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:11</t>
+  </si>
+  <si>
+    <t>17.920000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:10</t>
+  </si>
+  <si>
+    <t>38.13</t>
+  </si>
+  <si>
+    <t>-9.170000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:11</t>
+  </si>
+  <si>
+    <t>-7.450000000000017</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:13</t>
+  </si>
+  <si>
+    <t>-13.300000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:12</t>
+  </si>
+  <si>
+    <t>-24.730000000000018</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:10</t>
+  </si>
+  <si>
+    <t>-6.7900000000000205</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:10</t>
+  </si>
+  <si>
+    <t>0.5600000000000307</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:11</t>
+  </si>
+  <si>
+    <t>15.54000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:12</t>
+  </si>
+  <si>
+    <t>9.569999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:13</t>
+  </si>
+  <si>
+    <t>6.310000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:10</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:12</t>
+  </si>
+  <si>
+    <t>2.859999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:11</t>
+  </si>
+  <si>
+    <t>17.870000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:11</t>
+  </si>
+  <si>
+    <t>13.799999999999983</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:11</t>
+  </si>
+  <si>
+    <t>15.81000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:28</t>
+  </si>
+  <si>
+    <t>-16.539999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:11</t>
+  </si>
+  <si>
+    <t>-3.1699999999999875</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:11</t>
+  </si>
+  <si>
+    <t>4.199999999999989</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:10</t>
+  </si>
+  <si>
+    <t>13.23999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:10</t>
+  </si>
+  <si>
+    <t>19.17999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:12</t>
+  </si>
+  <si>
+    <t>9.429999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:11</t>
+  </si>
+  <si>
+    <t>-9.069999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:11</t>
+  </si>
+  <si>
+    <t>7.78000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:12</t>
+  </si>
+  <si>
+    <t>17.940000000000026</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:10</t>
+  </si>
+  <si>
+    <t>34.21999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:10</t>
+  </si>
+  <si>
+    <t>31.420000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:10</t>
+  </si>
+  <si>
+    <t>22.400000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:10</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>24.42</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:13</t>
+  </si>
+  <si>
+    <t>21.47</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:09</t>
+  </si>
+  <si>
+    <t>11.830000000000013</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:10</t>
+  </si>
+  <si>
+    <t>22.289999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:11</t>
+  </si>
+  <si>
+    <t>27.52000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:10</t>
+  </si>
+  <si>
+    <t>23.97999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:09</t>
+  </si>
+  <si>
+    <t>6.129999999999967</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:13</t>
+  </si>
+  <si>
+    <t>5.2900000000000205</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:10</t>
+  </si>
+  <si>
+    <t>0.28999999999999204</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:12</t>
+  </si>
+  <si>
+    <t>13.269999999999982</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:11</t>
+  </si>
+  <si>
+    <t>13.929999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:11</t>
+  </si>
+  <si>
+    <t>15.379999999999967</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:10</t>
+  </si>
+  <si>
+    <t>21.17999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:10</t>
+  </si>
+  <si>
+    <t>22.039999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:11</t>
+  </si>
+  <si>
+    <t>9.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:10</t>
+  </si>
+  <si>
+    <t>1.6299999999999955</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:10</t>
+  </si>
+  <si>
+    <t>2.4499999999999886</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:10</t>
+  </si>
+  <si>
+    <t>-13.969999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:12</t>
+  </si>
+  <si>
+    <t>-13.710000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:14</t>
+  </si>
+  <si>
+    <t>-4.259999999999991</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:10</t>
+  </si>
+  <si>
+    <t>2.4199999999999875</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:11</t>
+  </si>
+  <si>
+    <t>16.869999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:10</t>
+  </si>
+  <si>
+    <t>23.629999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:09</t>
+  </si>
+  <si>
+    <t>-3.8499999999999943</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:10</t>
+  </si>
+  <si>
+    <t>-5.530000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:10</t>
+  </si>
+  <si>
+    <t>-1.9499999999999886</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:13</t>
+  </si>
+  <si>
+    <t>11.46999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:11</t>
+  </si>
+  <si>
+    <t>9.919999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:11</t>
+  </si>
+  <si>
+    <t>26.419999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:12</t>
+  </si>
+  <si>
+    <t>25.810000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:13</t>
+  </si>
+  <si>
+    <t>17.99000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:11</t>
+  </si>
+  <si>
+    <t>7.739999999999981</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:12</t>
+  </si>
+  <si>
+    <t>14.030000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:11</t>
+  </si>
+  <si>
+    <t>14.939999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:11</t>
+  </si>
+  <si>
+    <t>17.97999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:12</t>
+  </si>
+  <si>
+    <t>26.150000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:12</t>
+  </si>
+  <si>
+    <t>17.420000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:13</t>
+  </si>
+  <si>
+    <t>-2.4899999999999807</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:10</t>
+  </si>
+  <si>
+    <t>-2.410000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:11</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:12</t>
+  </si>
+  <si>
+    <t>5.309999999999988</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:13</t>
+  </si>
+  <si>
+    <t>-0.8099999999999739</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:13</t>
+  </si>
+  <si>
+    <t>5.390000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:11</t>
+  </si>
+  <si>
+    <t>14.200000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:11</t>
+  </si>
+  <si>
+    <t>12.819999999999965</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:10</t>
+  </si>
+  <si>
+    <t>9.53000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:11</t>
+  </si>
+  <si>
+    <t>-2.309999999999974</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:13</t>
+  </si>
+  <si>
+    <t>35.58000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:13</t>
+  </si>
+  <si>
+    <t>18.130000000000024</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:12</t>
+  </si>
+  <si>
+    <t>-5.060000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:11</t>
+  </si>
+  <si>
+    <t>18.939999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:12</t>
+  </si>
+  <si>
+    <t>15.350000000000023</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:13</t>
+  </si>
+  <si>
+    <t>4.730000000000018</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:12</t>
+  </si>
+  <si>
+    <t>24.619999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:11</t>
+  </si>
+  <si>
+    <t>24.029999999999973</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:12</t>
+  </si>
+  <si>
+    <t>14.550000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:14</t>
+  </si>
+  <si>
+    <t>14.369999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:10</t>
+  </si>
+  <si>
+    <t>11.20999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:13</t>
+  </si>
+  <si>
+    <t>11.539999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:14</t>
+  </si>
+  <si>
+    <t>-1.9199999999999875</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:12</t>
+  </si>
+  <si>
+    <t>-8.610000000000042</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:11</t>
+  </si>
+  <si>
+    <t>-0.34000000000003183</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:12</t>
+  </si>
+  <si>
+    <t>-1.5700000000000216</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:11</t>
+  </si>
+  <si>
+    <t>6.5400000000000205</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:12</t>
+  </si>
+  <si>
+    <t>7.7599999999999625</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:14</t>
+  </si>
+  <si>
+    <t>16.47999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:14</t>
+  </si>
+  <si>
+    <t>12.03000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:20</t>
+  </si>
+  <si>
+    <t>-12.95999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:13</t>
+  </si>
+  <si>
+    <t>-14.360000000000042</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:15</t>
+  </si>
+  <si>
+    <t>-8.380000000000024</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:13</t>
+  </si>
+  <si>
+    <t>-3.710000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:16</t>
+  </si>
+  <si>
+    <t>2.159999999999968</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:16</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:15</t>
+  </si>
+  <si>
+    <t>11.809999999999974</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:11</t>
+  </si>
+  <si>
+    <t>-7.079999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:13</t>
+  </si>
+  <si>
+    <t>-3.530000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:13</t>
+  </si>
+  <si>
+    <t>-4.760000000000019</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:13</t>
+  </si>
+  <si>
+    <t>6.160000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:14</t>
+  </si>
+  <si>
+    <t>20.22</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:13</t>
+  </si>
+  <si>
+    <t>9.159999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:13</t>
+  </si>
+  <si>
+    <t>17.170000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:11</t>
+  </si>
+  <si>
+    <t>22.97</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:12</t>
+  </si>
+  <si>
+    <t>20.910000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:14</t>
+  </si>
+  <si>
+    <t>19.53000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:13</t>
+  </si>
+  <si>
+    <t>28.659999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:14</t>
+  </si>
+  <si>
+    <t>18.350000000000023</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:14</t>
+  </si>
+  <si>
+    <t>26.389999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:12</t>
+  </si>
+  <si>
+    <t>25.96999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:12</t>
+  </si>
+  <si>
+    <t>11.130000000000024</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:13</t>
+  </si>
+  <si>
+    <t>16.159999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:13</t>
+  </si>
+  <si>
+    <t>10.800000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:12</t>
+  </si>
+  <si>
+    <t>7.939999999999969</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:13</t>
+  </si>
+  <si>
+    <t>15.039999999999964</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:13</t>
+  </si>
+  <si>
+    <t>11.53000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:12</t>
+  </si>
+  <si>
+    <t>0.8500000000000227</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:14</t>
+  </si>
+  <si>
+    <t>-0.5900000000000034</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:11</t>
+  </si>
+  <si>
+    <t>10.15000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:14</t>
+  </si>
+  <si>
+    <t>3.2500000000000284</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:12</t>
+  </si>
+  <si>
+    <t>1.410000000000025</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:14</t>
+  </si>
+  <si>
+    <t>7.689999999999969</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:12</t>
+  </si>
+  <si>
+    <t>-13.45999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:16</t>
+  </si>
+  <si>
+    <t>-13.080000000000013</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:13</t>
+  </si>
+  <si>
+    <t>-15.29000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:12</t>
+  </si>
+  <si>
+    <t>-10.599999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:12</t>
+  </si>
+  <si>
+    <t>-5.980000000000018</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:12</t>
+  </si>
+  <si>
+    <t>-5.740000000000009</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:12</t>
+  </si>
+  <si>
+    <t>5.27000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:12</t>
+  </si>
+  <si>
+    <t>26.879999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:14</t>
+  </si>
+  <si>
+    <t>19.389999999999986</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:13</t>
+  </si>
+  <si>
+    <t>15.799999999999983</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:12</t>
+  </si>
+  <si>
+    <t>1.3400000000000034</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:11</t>
+  </si>
+  <si>
+    <t>-0.5800000000000125</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:11</t>
+  </si>
+  <si>
+    <t>9.789999999999964</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:11</t>
+  </si>
+  <si>
+    <t>15.519999999999982</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:13</t>
+  </si>
+  <si>
+    <t>10.900000000000006</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:11</t>
+  </si>
+  <si>
+    <t>5.939999999999998</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:11</t>
+  </si>
+  <si>
+    <t>13.439999999999998</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:09</t>
+  </si>
+  <si>
+    <t>-13.250000000000028</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:10</t>
+  </si>
+  <si>
+    <t>-21.17999999999998</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:12</t>
+  </si>
+  <si>
+    <t>-7.590000000000003</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:11</t>
+  </si>
+  <si>
+    <t>-20.360000000000014</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:10</t>
+  </si>
+  <si>
+    <t>-2.869999999999976</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:10</t>
+  </si>
+  <si>
+    <t>-3.1399999999999864</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:13</t>
+  </si>
+  <si>
+    <t>10.68999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:10</t>
+  </si>
+  <si>
+    <t>15.019999999999982</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:16</t>
+  </si>
+  <si>
+    <t>-9.629999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:12</t>
+  </si>
+  <si>
+    <t>-14.150000000000034</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:11</t>
+  </si>
+  <si>
+    <t>-1.0800000000000125</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:11</t>
+  </si>
+  <si>
+    <t>1.6899999999999977</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:11</t>
+  </si>
+  <si>
+    <t>5.550000000000011</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:10</t>
+  </si>
+  <si>
+    <t>12.96999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:10</t>
+  </si>
+  <si>
+    <t>14.980000000000018</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:11</t>
+  </si>
+  <si>
+    <t>-7.170000000000016</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:12</t>
+  </si>
+  <si>
+    <t>-9.030000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:12</t>
+  </si>
+  <si>
+    <t>-4.429999999999978</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:13</t>
+  </si>
+  <si>
+    <t>3.200000000000017</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:12</t>
+  </si>
+  <si>
+    <t>7.579999999999984</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:11</t>
+  </si>
+  <si>
+    <t>15.250000000000028</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:17</t>
+  </si>
+  <si>
+    <t>6.489999999999981</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:09</t>
+  </si>
+  <si>
+    <t>-14.259999999999991</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:13</t>
+  </si>
+  <si>
+    <t>-14.380000000000024</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:12</t>
+  </si>
+  <si>
+    <t>-8.20999999999998</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:11</t>
+  </si>
+  <si>
+    <t>-3.6200000000000045</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:11</t>
+  </si>
+  <si>
+    <t>11.349999999999994</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:12</t>
+  </si>
+  <si>
+    <t>9.069999999999993</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:10</t>
+  </si>
+  <si>
+    <t>-10.379999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:13</t>
+  </si>
+  <si>
+    <t>-12.960000000000008</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:12</t>
+  </si>
+  <si>
+    <t>-7.989999999999981</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:13</t>
+  </si>
+  <si>
+    <t>-16.830000000000013</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:11</t>
+  </si>
+  <si>
+    <t>-13.160000000000025</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:12</t>
+  </si>
+  <si>
+    <t>-16.690000000000026</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:13</t>
+  </si>
+  <si>
+    <t>38.81</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:12</t>
+  </si>
+  <si>
+    <t>13.819999999999965</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:10</t>
+  </si>
+  <si>
+    <t>20.77000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:11</t>
+  </si>
+  <si>
+    <t>2.090000000000032</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:10</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:12</t>
+  </si>
+  <si>
+    <t>-1.900000000000034</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:11</t>
+  </si>
+  <si>
+    <t>10.690000000000012</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:12</t>
+  </si>
+  <si>
+    <t>12.45999999999998</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:12</t>
+  </si>
+  <si>
+    <t>15.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:11</t>
+  </si>
+  <si>
+    <t>33.370000000000005</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:10</t>
+  </si>
+  <si>
+    <t>30.349999999999994</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:12</t>
+  </si>
+  <si>
+    <t>-2.3000000000000114</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:12</t>
+  </si>
+  <si>
+    <t>8.409999999999968</t>
+  </si>
+  <si>
+    <t>2023-08-08 23:00:10</t>
+  </si>
+  <si>
+    <t>4.69999999999996</t>
   </si>
 </sst>
 </file>
@@ -23738,7 +25964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3974"/>
+  <dimension ref="A1:D4398"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -79380,6 +81606,5942 @@
         <v>7893</v>
       </c>
     </row>
+    <row r="3975">
+      <c r="A3975" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>7894</v>
+      </c>
+      <c r="C3975" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3975" t="s">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="3976">
+      <c r="A3976" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>7896</v>
+      </c>
+      <c r="C3976" t="s">
+        <v>736</v>
+      </c>
+      <c r="D3976" t="s">
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="3977">
+      <c r="A3977" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>7898</v>
+      </c>
+      <c r="C3977" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3977" t="s">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="3978">
+      <c r="A3978" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>7899</v>
+      </c>
+      <c r="C3978" t="s">
+        <v>760</v>
+      </c>
+      <c r="D3978" t="s">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="3979">
+      <c r="A3979" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>7901</v>
+      </c>
+      <c r="C3979" t="s">
+        <v>883</v>
+      </c>
+      <c r="D3979" t="s">
+        <v>7902</v>
+      </c>
+    </row>
+    <row r="3980">
+      <c r="A3980" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>7903</v>
+      </c>
+      <c r="C3980" t="s">
+        <v>886</v>
+      </c>
+      <c r="D3980" t="s">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="3981">
+      <c r="A3981" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>7905</v>
+      </c>
+      <c r="C3981" t="s">
+        <v>7110</v>
+      </c>
+      <c r="D3981" t="s">
+        <v>7906</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3982" t="s">
+        <v>7907</v>
+      </c>
+      <c r="C3982" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3982" t="s">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>7909</v>
+      </c>
+      <c r="C3983" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D3983" t="s">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>7911</v>
+      </c>
+      <c r="C3984" t="s">
+        <v>7027</v>
+      </c>
+      <c r="D3984" t="s">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>7913</v>
+      </c>
+      <c r="C3985" t="s">
+        <v>903</v>
+      </c>
+      <c r="D3985" t="s">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>7915</v>
+      </c>
+      <c r="C3986" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3986" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>7916</v>
+      </c>
+      <c r="C3987" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3987" t="s">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>7918</v>
+      </c>
+      <c r="C3988" t="s">
+        <v>7161</v>
+      </c>
+      <c r="D3988" t="s">
+        <v>7919</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>7920</v>
+      </c>
+      <c r="C3989" t="s">
+        <v>900</v>
+      </c>
+      <c r="D3989" t="s">
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>7922</v>
+      </c>
+      <c r="C3990" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3990" t="s">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="3991">
+      <c r="A3991" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>7924</v>
+      </c>
+      <c r="C3991" t="s">
+        <v>858</v>
+      </c>
+      <c r="D3991" t="s">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="3992">
+      <c r="A3992" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>7926</v>
+      </c>
+      <c r="C3992" t="s">
+        <v>760</v>
+      </c>
+      <c r="D3992" t="s">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="3993">
+      <c r="A3993" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>7928</v>
+      </c>
+      <c r="C3993" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3993" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="3994">
+      <c r="A3994" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>7929</v>
+      </c>
+      <c r="C3994" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3994" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3995">
+      <c r="A3995" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>7930</v>
+      </c>
+      <c r="C3995" t="s">
+        <v>736</v>
+      </c>
+      <c r="D3995" t="s">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="3996">
+      <c r="A3996" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>7932</v>
+      </c>
+      <c r="C3996" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3996" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="3997">
+      <c r="A3997" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3997" t="s">
+        <v>7933</v>
+      </c>
+      <c r="C3997" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3997" t="s">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="3998">
+      <c r="A3998" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>7935</v>
+      </c>
+      <c r="C3998" t="s">
+        <v>727</v>
+      </c>
+      <c r="D3998" t="s">
+        <v>7936</v>
+      </c>
+    </row>
+    <row r="3999">
+      <c r="A3999" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>7937</v>
+      </c>
+      <c r="C3999" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3999" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4000">
+      <c r="A4000" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>7938</v>
+      </c>
+      <c r="C4000" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4000" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="4001">
+      <c r="A4001" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>7940</v>
+      </c>
+      <c r="C4001" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4001" t="s">
+        <v>7941</v>
+      </c>
+    </row>
+    <row r="4002">
+      <c r="A4002" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>7942</v>
+      </c>
+      <c r="C4002" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4002" t="s">
+        <v>7943</v>
+      </c>
+    </row>
+    <row r="4003">
+      <c r="A4003" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>7944</v>
+      </c>
+      <c r="C4003" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4003" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4004">
+      <c r="A4004" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>7945</v>
+      </c>
+      <c r="C4004" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4004" t="s">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="4005">
+      <c r="A4005" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>7947</v>
+      </c>
+      <c r="C4005" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4005" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="4006">
+      <c r="A4006" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>7948</v>
+      </c>
+      <c r="C4006" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4006" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="4007">
+      <c r="A4007" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>7949</v>
+      </c>
+      <c r="C4007" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4007" t="s">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="4008">
+      <c r="A4008" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>7951</v>
+      </c>
+      <c r="C4008" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4008" t="s">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="4009">
+      <c r="A4009" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>7953</v>
+      </c>
+      <c r="C4009" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4009" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="4010">
+      <c r="A4010" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>7955</v>
+      </c>
+      <c r="C4010" t="s">
+        <v>7861</v>
+      </c>
+      <c r="D4010" t="s">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="4011">
+      <c r="A4011" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>7957</v>
+      </c>
+      <c r="C4011" t="s">
+        <v>7958</v>
+      </c>
+      <c r="D4011" t="s">
+        <v>7959</v>
+      </c>
+    </row>
+    <row r="4012">
+      <c r="A4012" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4012" t="s">
+        <v>7960</v>
+      </c>
+      <c r="C4012" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4012" t="s">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="4013">
+      <c r="A4013" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>7962</v>
+      </c>
+      <c r="C4013" t="s">
+        <v>7963</v>
+      </c>
+      <c r="D4013" t="s">
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="4014">
+      <c r="A4014" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>7965</v>
+      </c>
+      <c r="C4014" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4014" t="s">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="4015">
+      <c r="A4015" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>7967</v>
+      </c>
+      <c r="C4015" t="s">
+        <v>7963</v>
+      </c>
+      <c r="D4015" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="4016">
+      <c r="A4016" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>7969</v>
+      </c>
+      <c r="C4016" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4016" t="s">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="4017">
+      <c r="A4017" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>7971</v>
+      </c>
+      <c r="C4017" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4017" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="4018">
+      <c r="A4018" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>7972</v>
+      </c>
+      <c r="C4018" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4018" t="s">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="4019">
+      <c r="A4019" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>7974</v>
+      </c>
+      <c r="C4019" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4019" t="s">
+        <v>7325</v>
+      </c>
+    </row>
+    <row r="4020">
+      <c r="A4020" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>7975</v>
+      </c>
+      <c r="C4020" t="s">
+        <v>7861</v>
+      </c>
+      <c r="D4020" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="4021">
+      <c r="A4021" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>7977</v>
+      </c>
+      <c r="C4021" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4021" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4022">
+      <c r="A4022" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>7978</v>
+      </c>
+      <c r="C4022" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4022" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="4023">
+      <c r="A4023" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>7980</v>
+      </c>
+      <c r="C4023" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4023" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="4024">
+      <c r="A4024" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>7981</v>
+      </c>
+      <c r="C4024" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4024" t="s">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="4025">
+      <c r="A4025" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>7983</v>
+      </c>
+      <c r="C4025" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4025" t="s">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="4026">
+      <c r="A4026" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>7985</v>
+      </c>
+      <c r="C4026" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4026" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="4027">
+      <c r="A4027" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4027" t="s">
+        <v>7987</v>
+      </c>
+      <c r="C4027" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4027" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="4028">
+      <c r="A4028" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>7989</v>
+      </c>
+      <c r="C4028" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4028" t="s">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="4029">
+      <c r="A4029" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>7991</v>
+      </c>
+      <c r="C4029" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4029" t="s">
+        <v>7992</v>
+      </c>
+    </row>
+    <row r="4030">
+      <c r="A4030" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>7993</v>
+      </c>
+      <c r="C4030" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4030" t="s">
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="4031">
+      <c r="A4031" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>7995</v>
+      </c>
+      <c r="C4031" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4031" t="s">
+        <v>7996</v>
+      </c>
+    </row>
+    <row r="4032">
+      <c r="A4032" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>7997</v>
+      </c>
+      <c r="C4032" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4032" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="4033">
+      <c r="A4033" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>7999</v>
+      </c>
+      <c r="C4033" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4033" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4034">
+      <c r="A4034" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C4034" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4034" t="s">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="4035">
+      <c r="A4035" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>8003</v>
+      </c>
+      <c r="C4035" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4035" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4036">
+      <c r="A4036" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>8004</v>
+      </c>
+      <c r="C4036" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4036" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="4037">
+      <c r="A4037" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>8005</v>
+      </c>
+      <c r="C4037" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4037" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="4038">
+      <c r="A4038" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>8006</v>
+      </c>
+      <c r="C4038" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4038" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="4039">
+      <c r="A4039" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>8007</v>
+      </c>
+      <c r="C4039" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4039" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="4040">
+      <c r="A4040" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>8008</v>
+      </c>
+      <c r="C4040" t="s">
+        <v>8009</v>
+      </c>
+      <c r="D4040" t="s">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>8011</v>
+      </c>
+      <c r="C4041" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4041" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>8013</v>
+      </c>
+      <c r="C4042" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4042" t="s">
+        <v>8014</v>
+      </c>
+    </row>
+    <row r="4043">
+      <c r="A4043" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>8015</v>
+      </c>
+      <c r="C4043" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4043" t="s">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="4044">
+      <c r="A4044" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>8017</v>
+      </c>
+      <c r="C4044" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4044" t="s">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="4045">
+      <c r="A4045" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>8019</v>
+      </c>
+      <c r="C4045" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4045" t="s">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="4046">
+      <c r="A4046" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>8021</v>
+      </c>
+      <c r="C4046" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4046" t="s">
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="4047">
+      <c r="A4047" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>8023</v>
+      </c>
+      <c r="C4047" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4047" t="s">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="4048">
+      <c r="A4048" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>8026</v>
+      </c>
+      <c r="C4048" t="s">
+        <v>8027</v>
+      </c>
+      <c r="D4048" t="s">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="4049">
+      <c r="A4049" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>8029</v>
+      </c>
+      <c r="C4049" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4049" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="4050">
+      <c r="A4050" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>8031</v>
+      </c>
+      <c r="C4050" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4050" t="s">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="4051">
+      <c r="A4051" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>8033</v>
+      </c>
+      <c r="C4051" t="s">
+        <v>686</v>
+      </c>
+      <c r="D4051" t="s">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="4052">
+      <c r="A4052" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>8035</v>
+      </c>
+      <c r="C4052" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4052" t="s">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="4053">
+      <c r="A4053" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>8038</v>
+      </c>
+      <c r="C4053" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4053" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="4054">
+      <c r="A4054" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>8040</v>
+      </c>
+      <c r="C4054" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4054" t="s">
+        <v>8042</v>
+      </c>
+    </row>
+    <row r="4055">
+      <c r="A4055" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>8043</v>
+      </c>
+      <c r="C4055" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4055" t="s">
+        <v>8044</v>
+      </c>
+    </row>
+    <row r="4056">
+      <c r="A4056" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>8045</v>
+      </c>
+      <c r="C4056" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4056" t="s">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="4057">
+      <c r="A4057" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>8047</v>
+      </c>
+      <c r="C4057" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4057" t="s">
+        <v>8048</v>
+      </c>
+    </row>
+    <row r="4058">
+      <c r="A4058" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>8049</v>
+      </c>
+      <c r="C4058" t="s">
+        <v>7963</v>
+      </c>
+      <c r="D4058" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="4059">
+      <c r="A4059" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>8050</v>
+      </c>
+      <c r="C4059" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4059" t="s">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="4060">
+      <c r="A4060" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>8052</v>
+      </c>
+      <c r="C4060" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4060" t="s">
+        <v>8053</v>
+      </c>
+    </row>
+    <row r="4061">
+      <c r="A4061" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>8054</v>
+      </c>
+      <c r="C4061" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4061" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="4062">
+      <c r="A4062" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>8056</v>
+      </c>
+      <c r="C4062" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4062" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="4063">
+      <c r="A4063" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>8058</v>
+      </c>
+      <c r="C4063" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4063" t="s">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="4064">
+      <c r="A4064" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>8060</v>
+      </c>
+      <c r="C4064" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4064" t="s">
+        <v>8061</v>
+      </c>
+    </row>
+    <row r="4065">
+      <c r="A4065" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>8062</v>
+      </c>
+      <c r="C4065" t="s">
+        <v>7319</v>
+      </c>
+      <c r="D4065" t="s">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="4066">
+      <c r="A4066" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C4066" t="s">
+        <v>7346</v>
+      </c>
+      <c r="D4066" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4067">
+      <c r="A4067" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>8065</v>
+      </c>
+      <c r="C4067" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4067" t="s">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="4068">
+      <c r="A4068" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>8067</v>
+      </c>
+      <c r="C4068" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4068" t="s">
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="4069">
+      <c r="A4069" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>8069</v>
+      </c>
+      <c r="C4069" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4069" t="s">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="4070">
+      <c r="A4070" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>8071</v>
+      </c>
+      <c r="C4070" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4070" t="s">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="4071">
+      <c r="A4071" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>8073</v>
+      </c>
+      <c r="C4071" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4071" t="s">
+        <v>8074</v>
+      </c>
+    </row>
+    <row r="4072">
+      <c r="A4072" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>8075</v>
+      </c>
+      <c r="C4072" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4072" t="s">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="4073">
+      <c r="A4073" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>8076</v>
+      </c>
+      <c r="C4073" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4073" t="s">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="4074">
+      <c r="A4074" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>8078</v>
+      </c>
+      <c r="C4074" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4074" t="s">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="4075">
+      <c r="A4075" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>8080</v>
+      </c>
+      <c r="C4075" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4075" t="s">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="4076">
+      <c r="A4076" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>8082</v>
+      </c>
+      <c r="C4076" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4076" t="s">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="4077">
+      <c r="A4077" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>8084</v>
+      </c>
+      <c r="C4077" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4077" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="4078">
+      <c r="A4078" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>8086</v>
+      </c>
+      <c r="C4078" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4078" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="4079">
+      <c r="A4079" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>8088</v>
+      </c>
+      <c r="C4079" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4079" t="s">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>8090</v>
+      </c>
+      <c r="C4080" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4080" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="4081">
+      <c r="A4081" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>8091</v>
+      </c>
+      <c r="C4081" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4081" t="s">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>8093</v>
+      </c>
+      <c r="C4082" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4082" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>8094</v>
+      </c>
+      <c r="C4083" t="s">
+        <v>7958</v>
+      </c>
+      <c r="D4083" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>8095</v>
+      </c>
+      <c r="C4084" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4084" t="s">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>8097</v>
+      </c>
+      <c r="C4085" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4085" t="s">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>8099</v>
+      </c>
+      <c r="C4086" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4086" t="s">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>8101</v>
+      </c>
+      <c r="C4087" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4087" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>8102</v>
+      </c>
+      <c r="C4088" t="s">
+        <v>8103</v>
+      </c>
+      <c r="D4088" t="s">
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>8105</v>
+      </c>
+      <c r="C4089" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4089" t="s">
+        <v>8106</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>8107</v>
+      </c>
+      <c r="C4090" t="s">
+        <v>8108</v>
+      </c>
+      <c r="D4090" t="s">
+        <v>8109</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>8110</v>
+      </c>
+      <c r="C4091" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4091" t="s">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>8112</v>
+      </c>
+      <c r="C4092" t="s">
+        <v>8027</v>
+      </c>
+      <c r="D4092" t="s">
+        <v>8113</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>8114</v>
+      </c>
+      <c r="C4093" t="s">
+        <v>695</v>
+      </c>
+      <c r="D4093" t="s">
+        <v>8115</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>8116</v>
+      </c>
+      <c r="C4094" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4094" t="s">
+        <v>8117</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>8118</v>
+      </c>
+      <c r="C4095" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4095" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>8119</v>
+      </c>
+      <c r="C4096" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4096" t="s">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>8121</v>
+      </c>
+      <c r="C4097" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4097" t="s">
+        <v>8122</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>8123</v>
+      </c>
+      <c r="C4098" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D4098" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>8125</v>
+      </c>
+      <c r="C4099" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D4099" t="s">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>8127</v>
+      </c>
+      <c r="C4100" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4100" t="s">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>8129</v>
+      </c>
+      <c r="C4101" t="s">
+        <v>8130</v>
+      </c>
+      <c r="D4101" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="4102">
+      <c r="A4102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>8132</v>
+      </c>
+      <c r="C4102" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4102" t="s">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="4103">
+      <c r="A4103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>8134</v>
+      </c>
+      <c r="C4103" t="s">
+        <v>8108</v>
+      </c>
+      <c r="D4103" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="4104">
+      <c r="A4104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>8135</v>
+      </c>
+      <c r="C4104" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4104" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4105">
+      <c r="A4105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>8136</v>
+      </c>
+      <c r="C4105" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4105" t="s">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="4106">
+      <c r="A4106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>8138</v>
+      </c>
+      <c r="C4106" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4106" t="s">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="4107">
+      <c r="A4107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>8140</v>
+      </c>
+      <c r="C4107" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4107" t="s">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="4108">
+      <c r="A4108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>8141</v>
+      </c>
+      <c r="C4108" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4108" t="s">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="4109">
+      <c r="A4109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>8143</v>
+      </c>
+      <c r="C4109" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4109" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="4110">
+      <c r="A4110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>8145</v>
+      </c>
+      <c r="C4110" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4110" t="s">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="4111">
+      <c r="A4111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>8147</v>
+      </c>
+      <c r="C4111" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4111" t="s">
+        <v>8148</v>
+      </c>
+    </row>
+    <row r="4112">
+      <c r="A4112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>8149</v>
+      </c>
+      <c r="C4112" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4112" t="s">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="4113">
+      <c r="A4113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>8151</v>
+      </c>
+      <c r="C4113" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4113" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="4114">
+      <c r="A4114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>8152</v>
+      </c>
+      <c r="C4114" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4114" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="4115">
+      <c r="A4115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>8153</v>
+      </c>
+      <c r="C4115" t="s">
+        <v>8108</v>
+      </c>
+      <c r="D4115" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4116">
+      <c r="A4116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>8154</v>
+      </c>
+      <c r="C4116" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4116" t="s">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="4117">
+      <c r="A4117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>8156</v>
+      </c>
+      <c r="C4117" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4117" t="s">
+        <v>8157</v>
+      </c>
+    </row>
+    <row r="4118">
+      <c r="A4118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>8158</v>
+      </c>
+      <c r="C4118" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4118" t="s">
+        <v>8159</v>
+      </c>
+    </row>
+    <row r="4119">
+      <c r="A4119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>8160</v>
+      </c>
+      <c r="C4119" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4119" t="s">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="4120">
+      <c r="A4120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>8162</v>
+      </c>
+      <c r="C4120" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4120" t="s">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="4121">
+      <c r="A4121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>8164</v>
+      </c>
+      <c r="C4121" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4121" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="4122">
+      <c r="A4122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>8165</v>
+      </c>
+      <c r="C4122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4122" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>8166</v>
+      </c>
+      <c r="C4123" t="s">
+        <v>8167</v>
+      </c>
+      <c r="D4123" t="s">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>8169</v>
+      </c>
+      <c r="C4124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4124" t="s">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>8170</v>
+      </c>
+      <c r="C4125" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4125" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>8172</v>
+      </c>
+      <c r="C4126" t="s">
+        <v>8173</v>
+      </c>
+      <c r="D4126" t="s">
+        <v>8174</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>8175</v>
+      </c>
+      <c r="C4127" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4127" t="s">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>8177</v>
+      </c>
+      <c r="C4128" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4128" t="s">
+        <v>8178</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>8179</v>
+      </c>
+      <c r="C4129" t="s">
+        <v>8167</v>
+      </c>
+      <c r="D4129" t="s">
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>8181</v>
+      </c>
+      <c r="C4130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4130" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>8182</v>
+      </c>
+      <c r="C4131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4131" t="s">
+        <v>8183</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4132" t="s">
+        <v>8184</v>
+      </c>
+      <c r="C4132" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4132" t="s">
+        <v>8185</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>8186</v>
+      </c>
+      <c r="C4133" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4133" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>8187</v>
+      </c>
+      <c r="C4134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4134" t="s">
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>8189</v>
+      </c>
+      <c r="C4135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4135" t="s">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>8191</v>
+      </c>
+      <c r="C4136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4136" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>8192</v>
+      </c>
+      <c r="C4137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4137" t="s">
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>8194</v>
+      </c>
+      <c r="C4138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4138" t="s">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4139" t="s">
+        <v>8195</v>
+      </c>
+      <c r="C4139" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4139" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4140" t="s">
+        <v>8196</v>
+      </c>
+      <c r="C4140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4140" t="s">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4141" t="s">
+        <v>8198</v>
+      </c>
+      <c r="C4141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4141" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4142" t="s">
+        <v>8199</v>
+      </c>
+      <c r="C4142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4142" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4143" t="s">
+        <v>8200</v>
+      </c>
+      <c r="C4143" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4143" t="s">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4144" t="s">
+        <v>8202</v>
+      </c>
+      <c r="C4144" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4144" t="s">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4145" t="s">
+        <v>8204</v>
+      </c>
+      <c r="C4145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4145" t="s">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4146" t="s">
+        <v>8206</v>
+      </c>
+      <c r="C4146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4146" t="s">
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4147" t="s">
+        <v>8208</v>
+      </c>
+      <c r="C4147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4147" t="s">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4148" t="s">
+        <v>8210</v>
+      </c>
+      <c r="C4148" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4148" t="s">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4149" t="s">
+        <v>8212</v>
+      </c>
+      <c r="C4149" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4149" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4150" t="s">
+        <v>8213</v>
+      </c>
+      <c r="C4150" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4150" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4151" t="s">
+        <v>8214</v>
+      </c>
+      <c r="C4151" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4151" t="s">
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4152" t="s">
+        <v>8216</v>
+      </c>
+      <c r="C4152" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4152" t="s">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4153" t="s">
+        <v>8218</v>
+      </c>
+      <c r="C4153" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4153" t="s">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4154" t="s">
+        <v>8220</v>
+      </c>
+      <c r="C4154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4154" t="s">
+        <v>8221</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4155" t="s">
+        <v>8222</v>
+      </c>
+      <c r="C4155" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4155" t="s">
+        <v>8223</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4156" t="s">
+        <v>8224</v>
+      </c>
+      <c r="C4156" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4156" t="s">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4157" t="s">
+        <v>8226</v>
+      </c>
+      <c r="C4157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4157" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4158" t="s">
+        <v>8227</v>
+      </c>
+      <c r="C4158" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4158" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4159" t="s">
+        <v>8228</v>
+      </c>
+      <c r="C4159" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4159" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4160" t="s">
+        <v>8229</v>
+      </c>
+      <c r="C4160" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4161" t="s">
+        <v>8230</v>
+      </c>
+      <c r="C4161" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4161" t="s">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4162" t="s">
+        <v>8232</v>
+      </c>
+      <c r="C4162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4162" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4163" t="s">
+        <v>8233</v>
+      </c>
+      <c r="C4163" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4163" t="s">
+        <v>8234</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4164" t="s">
+        <v>8235</v>
+      </c>
+      <c r="C4164" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4164" t="s">
+        <v>8236</v>
+      </c>
+    </row>
+    <row r="4165">
+      <c r="A4165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4165" t="s">
+        <v>8237</v>
+      </c>
+      <c r="C4165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4165" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="4166">
+      <c r="A4166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4166" t="s">
+        <v>8239</v>
+      </c>
+      <c r="C4166" t="s">
+        <v>8240</v>
+      </c>
+      <c r="D4166" t="s">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4167" t="s">
+        <v>8242</v>
+      </c>
+      <c r="C4167" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4167" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="4168">
+      <c r="A4168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4168" t="s">
+        <v>8243</v>
+      </c>
+      <c r="C4168" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4168" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4169">
+      <c r="A4169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4169" t="s">
+        <v>8244</v>
+      </c>
+      <c r="C4169" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4169" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="4170">
+      <c r="A4170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4170" t="s">
+        <v>8246</v>
+      </c>
+      <c r="C4170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4170" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="4171">
+      <c r="A4171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4171" t="s">
+        <v>8248</v>
+      </c>
+      <c r="C4171" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4171" t="s">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="4172">
+      <c r="A4172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4172" t="s">
+        <v>8249</v>
+      </c>
+      <c r="C4172" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4172" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="4173">
+      <c r="A4173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4173" t="s">
+        <v>8251</v>
+      </c>
+      <c r="C4173" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4173" t="s">
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="4174">
+      <c r="A4174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4174" t="s">
+        <v>8253</v>
+      </c>
+      <c r="C4174" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4174" t="s">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="4175">
+      <c r="A4175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4175" t="s">
+        <v>8255</v>
+      </c>
+      <c r="C4175" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4175" t="s">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="4176">
+      <c r="A4176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4176" t="s">
+        <v>8257</v>
+      </c>
+      <c r="C4176" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4176" t="s">
+        <v>8258</v>
+      </c>
+    </row>
+    <row r="4177">
+      <c r="A4177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4177" t="s">
+        <v>8259</v>
+      </c>
+      <c r="C4177" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4177" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="4178">
+      <c r="A4178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4178" t="s">
+        <v>8261</v>
+      </c>
+      <c r="C4178" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4178" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="4179">
+      <c r="A4179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4179" t="s">
+        <v>8263</v>
+      </c>
+      <c r="C4179" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4179" t="s">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="4180">
+      <c r="A4180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4180" t="s">
+        <v>8265</v>
+      </c>
+      <c r="C4180" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4180" t="s">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="4181">
+      <c r="A4181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4181" t="s">
+        <v>8266</v>
+      </c>
+      <c r="C4181" t="s">
+        <v>8108</v>
+      </c>
+      <c r="D4181" t="s">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="4182">
+      <c r="A4182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4182" t="s">
+        <v>8268</v>
+      </c>
+      <c r="C4182" t="s">
+        <v>8103</v>
+      </c>
+      <c r="D4182" t="s">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="4183">
+      <c r="A4183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4183" t="s">
+        <v>8270</v>
+      </c>
+      <c r="C4183" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4183" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="4184">
+      <c r="A4184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4184" t="s">
+        <v>8272</v>
+      </c>
+      <c r="C4184" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4184" t="s">
+        <v>8273</v>
+      </c>
+    </row>
+    <row r="4185">
+      <c r="A4185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4185" t="s">
+        <v>8274</v>
+      </c>
+      <c r="C4185" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4185" t="s">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="4186">
+      <c r="A4186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4186" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C4186" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4186" t="s">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="4187">
+      <c r="A4187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4187" t="s">
+        <v>8278</v>
+      </c>
+      <c r="C4187" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4187" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="4188">
+      <c r="A4188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4188" t="s">
+        <v>8280</v>
+      </c>
+      <c r="C4188" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4188" t="s">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="4189">
+      <c r="A4189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>8282</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>8283</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>8285</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>8287</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>8173</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>8288</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>8290</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>8292</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>8293</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>8027</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>8295</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>8296</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>8297</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>8298</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>8103</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>8299</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>8300</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>8301</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>8303</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>8305</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>8306</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>8307</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>8309</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>8009</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>8311</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>8313</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>8314</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>8315</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>7958</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>8316</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>8317</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>8318</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>8319</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>8321</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>8323</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>8325</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>8327</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>8328</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>8329</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>8330</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>8331</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>8333</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>8335</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>8336</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>8337</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>8338</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>8339</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>8341</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>8342</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>8343</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>8345</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>8347</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>8349</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>8351</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>8353</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>8354</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>8355</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>8356</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>8358</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>8361</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>8362</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>8363</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>8365</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>8366</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>8367</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>8369</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>8371</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>8372</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>8373</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>8375</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>8377</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>8378</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>8379</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>8381</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>8382</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>8383</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>8385</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>8387</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>8388</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>7319</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>8390</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>8392</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>8393</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>8395</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>8397</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>8399</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>8401</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>8403</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>8405</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>8407</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>8409</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>8411</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>8412</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>8414</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>8416</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>8418</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>8420</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>8422</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>8423</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>8424</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>8425</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>8426</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>8428</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>8429</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>8009</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>8431</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>8433</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>8434</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>8435</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>8437</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>8439</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>8440</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>8441</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>856</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>8443</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>861</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>8445</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>897</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>8447</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>903</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>8448</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>8449</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>6983</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>8450</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>976</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>8452</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>8454</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>915</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>8456</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>918</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>8458</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>915</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>8459</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>912</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>8461</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>7159</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>8462</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>8463</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>8465</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>8467</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>7159</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>8469</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>6983</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>8471</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>8472</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>8473</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>8474</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>8476</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>8477</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>858</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>8478</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>858</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>8480</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>8481</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>892</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>8483</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>8485</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>897</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>8487</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>8489</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>8491</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>8493</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>8495</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>8497</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>8498</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>8500</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>7861</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>8502</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>8504</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>8506</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>8508</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>8510</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>8512</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>8514</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>8515</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>8516</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>8517</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>8519</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>8521</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>8522</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>8524</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>8525</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>8527</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>8529</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>8531</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>8532</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>8534</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>8536</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>8537</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>8538</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>8539</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>7979</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>8540</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>8542</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>8544</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>8546</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>8548</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>8550</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>8551</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>8553</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>8555</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>8557</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>8558</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>7866</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>8559</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>8561</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>7861</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>8563</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>8565</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>8566</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>8567</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>8568</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>8569</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>8570</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>8009</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>8571</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>8573</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>8575</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>8576</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>8577</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>8578</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>7963</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>8580</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>8582</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>8036</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>8583</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>8585</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>8137</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>8586</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>8587</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>8588</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>8589</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>8590</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>8592</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>8594</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>695</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>8595</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>8596</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>8598</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>8599</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>8600</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>8602</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>8167</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>8603</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>8604</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>8605</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>8607</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>8609</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>8173</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>8610</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>8611</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>8612</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>8613</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>8130</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>8569</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>8614</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>8616</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>8617</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>8618</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>8619</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>8620</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>8621</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>8622</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>8624</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>8625</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>8626</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>8627</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>8629</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>8631</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>8632</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>8634</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>8635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
